--- a/Data-Adidas/IGK_Adidas.xlsx
+++ b/Data-Adidas/IGK_Adidas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="201">
   <si>
     <t>Share capital</t>
   </si>
@@ -627,6 +627,21 @@
   </si>
   <si>
     <t>Balance at December 31, 2014/ January 1, 2015</t>
+  </si>
+  <si>
+    <t>Repurcase of adidas AG shares</t>
+  </si>
+  <si>
+    <t>Repurchase of adidas AG shares due to equity-settled shared-based payment</t>
+  </si>
+  <si>
+    <t>First-time consolidated due to obtaining control in accordance IFRS 10</t>
+  </si>
+  <si>
+    <t>Repurchase of adidas AG shares</t>
+  </si>
+  <si>
+    <t>Repurchase of adidas AG shares due to equity-settled share-based payment</t>
   </si>
 </sst>
 </file>
@@ -4639,7 +4654,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4960,8 +4975,8 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6125,7 +6140,7 @@
     </row>
     <row r="42" spans="1:13" s="6" customFormat="1">
       <c r="A42" s="30" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>42</v>
@@ -6152,7 +6167,7 @@
     </row>
     <row r="43" spans="1:13" s="6" customFormat="1">
       <c r="A43" s="12" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>42</v>
@@ -6386,9 +6401,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="7" customFormat="1" ht="25.5">
+    <row r="51" spans="1:13" s="7" customFormat="1">
       <c r="A51" s="24" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>42</v>
@@ -6415,7 +6430,7 @@
     </row>
     <row r="52" spans="1:13" s="6" customFormat="1">
       <c r="A52" s="30" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>42</v>
@@ -6442,7 +6457,7 @@
     </row>
     <row r="53" spans="1:13" s="6" customFormat="1">
       <c r="A53" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>42</v>
@@ -6469,7 +6484,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="51" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -6494,7 +6509,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>57</v>
@@ -6519,7 +6534,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="12" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>13</v>

--- a/Data-Adidas/IGK_Adidas.xlsx
+++ b/Data-Adidas/IGK_Adidas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="200">
   <si>
     <t>Share capital</t>
   </si>
@@ -627,9 +627,6 @@
   </si>
   <si>
     <t>Balance at December 31, 2014/ January 1, 2015</t>
-  </si>
-  <si>
-    <t>Repurcase of adidas AG shares</t>
   </si>
   <si>
     <t>Repurchase of adidas AG shares due to equity-settled shared-based payment</t>
@@ -4654,7 +4651,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,8 +4972,8 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6140,7 +6137,7 @@
     </row>
     <row r="42" spans="1:13" s="6" customFormat="1">
       <c r="A42" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>42</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="43" spans="1:13" s="6" customFormat="1">
       <c r="A43" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>42</v>
@@ -6403,7 +6400,7 @@
     </row>
     <row r="51" spans="1:13" s="7" customFormat="1">
       <c r="A51" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>42</v>
@@ -6430,7 +6427,7 @@
     </row>
     <row r="52" spans="1:13" s="6" customFormat="1">
       <c r="A52" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>42</v>
@@ -6534,7 +6531,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>13</v>

--- a/Data-Adidas/IGK_Adidas.xlsx
+++ b/Data-Adidas/IGK_Adidas.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="196">
-  <si>
-    <t>Share capital</t>
-  </si>
-  <si>
-    <t>Retained earnings</t>
-  </si>
-  <si>
-    <t>Total equity</t>
-  </si>
-  <si>
-    <t>Shareholders’ equity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="161">
   <si>
     <t>6</t>
   </si>
@@ -52,12 +40,6 @@
     <t>Other comprehensive income</t>
   </si>
   <si>
-    <t>Total comprehensive income</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -94,15 +76,6 @@
     <t>884</t>
   </si>
   <si>
-    <t>Capital reserve</t>
-  </si>
-  <si>
-    <t>Cumulative currency translation differences</t>
-  </si>
-  <si>
-    <t>Hedging reserve</t>
-  </si>
-  <si>
     <t>Balance at January 1, 2017</t>
   </si>
   <si>
@@ -127,9 +100,6 @@
     <t>150</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -139,26 +109,9 @@
     <t>30</t>
   </si>
   <si>
-    <r>
-      <t>Other reserves </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="AdiHaus"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -169,12 +122,6 @@
   </si>
   <si>
     <t>199</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>282</t>
   </si>
   <si>
     <r>
@@ -191,57 +138,30 @@
     </r>
   </si>
   <si>
-    <t>Cost of hedging reserve – 
-options</t>
-  </si>
-  <si>
-    <t>Cost of hedging reserve – 
-forward contracts</t>
-  </si>
-  <si>
-    <t>Non-
-controlling interests</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>180</t>
   </si>
   <si>
     <t>229</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
     <t>231</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>887</t>
   </si>
   <si>
     <t>5858</t>
   </si>
   <si>
-    <t>6032</t>
-  </si>
-  <si>
     <t>6017</t>
   </si>
   <si>
     <t>5836</t>
   </si>
   <si>
-    <t>6011</t>
-  </si>
-  <si>
     <t>5996</t>
   </si>
   <si>
@@ -251,18 +171,9 @@
     <t>1704</t>
   </si>
   <si>
-    <t>1851</t>
-  </si>
-  <si>
-    <t>1855</t>
-  </si>
-  <si>
     <t>6054</t>
   </si>
   <si>
-    <t>6377</t>
-  </si>
-  <si>
     <t>6364</t>
   </si>
   <si>
@@ -278,21 +189,12 @@
     <t>5053</t>
   </si>
   <si>
-    <t>6472</t>
-  </si>
-  <si>
     <t>6455</t>
   </si>
   <si>
-    <t>5997</t>
-  </si>
-  <si>
     <t>5980</t>
   </si>
   <si>
-    <t>1096</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -362,9 +264,6 @@
     <t>-818</t>
   </si>
   <si>
-    <t>-819</t>
-  </si>
-  <si>
     <t>-73</t>
   </si>
   <si>
@@ -410,9 +309,6 @@
     <t>6555</t>
   </si>
   <si>
-    <t>6796</t>
-  </si>
-  <si>
     <t>261</t>
   </si>
   <si>
@@ -431,9 +327,6 @@
     <t>-809</t>
   </si>
   <si>
-    <t>1894</t>
-  </si>
-  <si>
     <t>1977</t>
   </si>
   <si>
@@ -449,15 +342,9 @@
     <t>-664</t>
   </si>
   <si>
-    <t>1898</t>
-  </si>
-  <si>
     <t>1976</t>
   </si>
   <si>
-    <t>-78</t>
-  </si>
-  <si>
     <t>-806</t>
   </si>
   <si>
@@ -500,18 +387,12 @@
     <t>4874</t>
   </si>
   <si>
-    <t>5666</t>
-  </si>
-  <si>
     <t>5648</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
     <t>-60</t>
   </si>
   <si>
@@ -524,24 +405,15 @@
     <t>1017</t>
   </si>
   <si>
-    <t>1115</t>
-  </si>
-  <si>
     <t>1020</t>
   </si>
   <si>
-    <t>1117</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
     <t xml:space="preserve"> Net income recognized directly in equity</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>Transactions with non-controlling interests</t>
   </si>
   <si>
@@ -572,21 +444,9 @@
     <t>-303</t>
   </si>
   <si>
-    <t>5624</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
     <t>-301</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>5618</t>
   </si>
   <si>
@@ -596,9 +456,6 @@
     <t>640</t>
   </si>
   <si>
-    <t>664</t>
-  </si>
-  <si>
     <t>-309</t>
   </si>
   <si>
@@ -627,6 +484,31 @@
   </si>
   <si>
     <t>Balance at December 31, 2014/ January 1, 2015</t>
+  </si>
+  <si>
+    <t>Share capital [mio $]</t>
+  </si>
+  <si>
+    <t>Capital reserve [mio $]</t>
+  </si>
+  <si>
+    <t>Cumulative currency translation differences [mio $]</t>
+  </si>
+  <si>
+    <t>Hedging reserve [mio $]</t>
+  </si>
+  <si>
+    <t>Other reserves [mio $]</t>
+  </si>
+  <si>
+    <t>Retained earnings [mio $]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Non - controlling interests [mio $]</t>
+  </si>
+  <si>
+    <t>Total equity [mio $]</t>
   </si>
 </sst>
 </file>
@@ -647,7 +529,7 @@
     <numFmt numFmtId="174" formatCode="&quot;    &quot;@"/>
     <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="78">
+  <fonts count="77">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1128,12 +1010,6 @@
       <sz val="10"/>
       <name val="Geneva"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="AdiHaus"/>
     </font>
     <font>
       <b/>
@@ -3577,7 +3453,7 @@
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3615,9 +3491,6 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3641,12 +3514,6 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3688,18 +3555,12 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3724,15 +3585,9 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -3751,11 +3606,11 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="77" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="76" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="846">
@@ -4623,13 +4478,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>577075</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>126292</xdr:rowOff>
@@ -4639,7 +4494,7 @@
         <xdr:cNvPr id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4958,10 +4813,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4972,1866 +4827,1262 @@
     <col min="4" max="4" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="18">
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="18">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="21">
-      <c r="A3" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="21">
+      <c r="A3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1">
       <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="26"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="65.099999999999994" customHeight="1">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1">
+      <c r="A6" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="28" customFormat="1">
+      <c r="A7" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="28" customFormat="1">
+      <c r="A8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1">
+      <c r="A9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="28" customFormat="1">
+      <c r="A10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1">
+      <c r="A11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1">
+      <c r="A12" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="29" customFormat="1">
+      <c r="A13" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="29" customFormat="1">
+      <c r="A14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="25.5">
+      <c r="A15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1">
+      <c r="A16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1">
+      <c r="A19" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1">
+      <c r="A20" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1">
+      <c r="A21" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="29" customFormat="1">
+      <c r="A22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1">
+      <c r="A23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1">
+      <c r="A24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="25.5">
+      <c r="A25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1">
+      <c r="A26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="25.5">
+      <c r="A27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="25.5">
+      <c r="A28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1">
+      <c r="A29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1">
+      <c r="A30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1">
+      <c r="A31" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="G31" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="53" t="s">
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1">
+      <c r="A32" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1">
+      <c r="A33" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1">
+      <c r="A34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="6" customFormat="1">
+      <c r="A35" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="54" t="s">
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1">
+      <c r="A36" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="6" customFormat="1" ht="25.5">
+      <c r="A37" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="6" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="6" customFormat="1">
+      <c r="A39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="6" customFormat="1">
+      <c r="A40" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1">
+      <c r="A41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="6" customFormat="1">
+      <c r="A42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="6" customFormat="1">
+      <c r="A43" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="6" customFormat="1">
-      <c r="A6" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44" t="s">
+      <c r="D43" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="6" customFormat="1">
+      <c r="A44" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" s="58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="31" customFormat="1">
-      <c r="A7" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="48" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="7" customFormat="1">
+      <c r="A45" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1" ht="25.5">
+      <c r="A46" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="31" customFormat="1">
-      <c r="A8" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1">
-      <c r="A9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="7" customFormat="1">
-      <c r="A10" s="30" t="s">
+    </row>
+    <row r="47" spans="1:9" s="6" customFormat="1">
+      <c r="A47" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="6" customFormat="1">
+      <c r="A48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="31" customFormat="1">
-      <c r="A11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="49" t="s">
+      <c r="B48" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="6" customFormat="1">
-      <c r="A12" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="M12" s="49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="6" customFormat="1">
-      <c r="A13" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="K13" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="32" customFormat="1">
-      <c r="A14" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="32" customFormat="1">
-      <c r="A15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="6" customFormat="1">
-      <c r="A16" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" ht="25.5">
-      <c r="A17" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="7" customFormat="1">
-      <c r="A18" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="L19" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="6" customFormat="1">
-      <c r="A20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="6" customFormat="1">
-      <c r="A21" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="M21" s="47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="6" customFormat="1">
-      <c r="A22" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="47"/>
-    </row>
-    <row r="23" spans="1:13" s="6" customFormat="1">
-      <c r="A23" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="K23" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="32" customFormat="1">
-      <c r="A24" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="6" customFormat="1">
-      <c r="A25" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="L25" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="6" customFormat="1">
-      <c r="A26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="6" customFormat="1">
-      <c r="A27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="6" customFormat="1" ht="25.5">
-      <c r="A28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="6" customFormat="1">
-      <c r="A29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="6" customFormat="1" ht="25.5">
-      <c r="A30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="25.5">
-      <c r="A31" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="6" customFormat="1">
-      <c r="A32" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="M32" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="6" customFormat="1">
-      <c r="A33" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="6" customFormat="1">
-      <c r="A34" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J34" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="M34" s="47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="6" customFormat="1">
-      <c r="A35" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="M35" s="48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="6" customFormat="1">
-      <c r="A36" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="M36" s="48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="6" customFormat="1">
-      <c r="A37" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="47" t="s">
+      <c r="H52" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J37" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="M37" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="6" customFormat="1">
-      <c r="A38" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="L38" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="6" customFormat="1">
-      <c r="A39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="K39" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="L39" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="7" customFormat="1">
-      <c r="A40" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="K40" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="L40" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="M40" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="6" customFormat="1" ht="25.5">
-      <c r="A41" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="6" customFormat="1">
-      <c r="A42" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="6" customFormat="1">
-      <c r="A43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="6" customFormat="1">
-      <c r="A44" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1">
-      <c r="A45" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="K45" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="M45" s="49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="6" customFormat="1">
-      <c r="A46" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="6" customFormat="1">
-      <c r="A47" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="58" t="s">
+      <c r="I52" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="J47" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="L47" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="M47" s="58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="6" customFormat="1">
-      <c r="A48" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="L48" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="M48" s="48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="7" customFormat="1">
-      <c r="A49" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="L49" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="6" customFormat="1">
-      <c r="A50" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="J50" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="K50" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="L50" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="M50" s="50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="7" customFormat="1" ht="25.5">
-      <c r="A51" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="6" customFormat="1">
-      <c r="A52" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="6" customFormat="1">
-      <c r="A53" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="K54" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="L54" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M54" s="49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="K55" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="14"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="M56" s="49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="H57" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="J57" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="K57" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="L57" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="M57" s="58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-    </row>
-    <row r="59" spans="1:13">
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
+      <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="9"/>
-      <c r="B60" s="17"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-    </row>
-    <row r="61" spans="1:13">
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="12"/>
       <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
+      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-    </row>
-    <row r="62" spans="1:13">
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-    </row>
-    <row r="63" spans="1:13">
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="9"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-    </row>
-    <row r="67" spans="1:13">
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="9"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="12"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="12"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="22"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="9"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="12"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="25"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
